--- a/SuppXLS/Scen_PWR_BECCS_START_2027.xlsx
+++ b/SuppXLS/Scen_PWR_BECCS_START_2027.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\VEDA_Models\~g2v_TIMES-Ireland-model\main\SuppXLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HannahD\Documents\GitHub\Irish-TIMES-model\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CF87404-E06A-4C49-81D6-BACF6CA2E048}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC8D3E27-CA2B-4644-9377-A03EF7EDE11C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13110" yWindow="6525" windowWidth="28110" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4575" yWindow="16050" windowWidth="19650" windowHeight="11070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UPD" sheetId="11" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>Pset_CI</t>
   </si>
@@ -116,6 +116,9 @@
   </si>
   <si>
     <t>NCAP_START</t>
+  </si>
+  <si>
+    <t>NCAP_ILED</t>
   </si>
 </sst>
 </file>
@@ -818,7 +821,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="38" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -830,7 +833,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1230,7 +1232,7 @@
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1323,39 +1325,45 @@
       <c r="H4">
         <v>2027</v>
       </c>
-      <c r="J4" s="12" t="s">
+      <c r="J4" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="L4" s="9" t="s">
+      <c r="L4" s="8" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:16">
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="J5" s="7"/>
-      <c r="L5" s="9"/>
+      <c r="D5" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9">
+        <v>0</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5" s="8"/>
     </row>
     <row r="6" spans="1:16">
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="J6" s="8"/>
-      <c r="L6" s="11"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="J6" s="7"/>
+      <c r="L6" s="10"/>
     </row>
     <row r="7" spans="1:16">
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="J7" s="8"/>
-      <c r="L7" s="11"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="J7" s="7"/>
+      <c r="L7" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
